--- a/Sheran Nancy TC.xlsx
+++ b/Sheran Nancy TC.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
   <si>
     <t>Sl.No</t>
   </si>
@@ -363,6 +363,53 @@
   </si>
   <si>
     <t>Order summary test case</t>
+  </si>
+  <si>
+    <t>TC_Home01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check home option </t>
+  </si>
+  <si>
+    <t>The user must check whether there is a home option</t>
+  </si>
+  <si>
+    <t>Click Home option on the left corner
+of the page</t>
+  </si>
+  <si>
+    <t>It shows lists of option such as my orders, my rewards etc.</t>
+  </si>
+  <si>
+    <t>1. Contains many options
+2. Each section are separated by a thin line 
+to differentiate</t>
+  </si>
+  <si>
+    <t>TC_Notifi01</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>To check the notification section</t>
+  </si>
+  <si>
+    <t>The user must check for  notification</t>
+  </si>
+  <si>
+    <t>Click on the bell symbol to check for
+notification</t>
+  </si>
+  <si>
+    <t>Shows the notification for our account such as order confirm,
+Offers on products etc.</t>
+  </si>
+  <si>
+    <t>Notifies offers on our frequent purchase</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1442,70 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="mail-123@gmail.com"/>

--- a/Sheran Nancy TC.xlsx
+++ b/Sheran Nancy TC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>Sl.No</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>Notifies offers on our frequent purchase</t>
+  </si>
+  <si>
+    <t>Home button test case</t>
+  </si>
+  <si>
+    <t>Notification button test case</t>
   </si>
 </sst>
 </file>
@@ -831,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,18 +1026,28 @@
       <c r="C18" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12">
+        <v>44530</v>
+      </c>
       <c r="E18" s="7" t="s">
         <v>62</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="12">
+        <v>44530</v>
+      </c>
       <c r="E19" s="7" t="s">
         <v>62</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1044,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,6 +1527,6 @@
     <hyperlink ref="F2" r:id="rId1" display="mail-123@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sheran Nancy TC.xlsx
+++ b/Sheran Nancy TC.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="End to End" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="259">
   <si>
     <t>Sl.No</t>
   </si>
@@ -79,12 +80,6 @@
     <t>Signup</t>
   </si>
   <si>
-    <t>To create a flipkart account</t>
-  </si>
-  <si>
-    <t>The user should have a valid mail id or phone number</t>
-  </si>
-  <si>
     <t>mail: 123@gmail.com Pw: ********</t>
   </si>
   <si>
@@ -110,9 +105,6 @@
   </si>
   <si>
     <t>Logged into the account and directed to the homepage</t>
-  </si>
-  <si>
-    <t>Same as the result</t>
   </si>
   <si>
     <t>TC_Dashboard01</t>
@@ -191,9 +183,6 @@
   <si>
     <t>To sort a product according to the user's 
 preference</t>
-  </si>
-  <si>
-    <t>The user must sort the product according to the price</t>
   </si>
   <si>
     <t>Product: Hair dye
@@ -332,34 +321,10 @@
     <t>Should have a bigger font size</t>
   </si>
   <si>
-    <t>Signup module test case</t>
-  </si>
-  <si>
-    <t>Login test case module has been written</t>
-  </si>
-  <si>
     <t>Dashboard test case</t>
   </si>
   <si>
-    <t>Search bar test case</t>
-  </si>
-  <si>
-    <t>Filter module test case</t>
-  </si>
-  <si>
-    <t>Sort module test case</t>
-  </si>
-  <si>
-    <t>Add to cart module test case</t>
-  </si>
-  <si>
-    <t>Buy now module test case</t>
-  </si>
-  <si>
     <t>Delivery address test case</t>
-  </si>
-  <si>
-    <t>Payment option test case</t>
   </si>
   <si>
     <t>Order summary test case</t>
@@ -416,22 +381,521 @@
   </si>
   <si>
     <t>Notification button test case</t>
+  </si>
+  <si>
+    <t>TC_Signup02</t>
+  </si>
+  <si>
+    <t>To create a flipkart account using gmail 
+account</t>
+  </si>
+  <si>
+    <t>To create a flipkart account using phone
+number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should have a valid mail id </t>
+  </si>
+  <si>
+    <t>The user should have a valid and useable phone number</t>
+  </si>
+  <si>
+    <t>Ph: 7373212527
+pw:********</t>
+  </si>
+  <si>
+    <t>The account should be created and directed to the home page</t>
+  </si>
+  <si>
+    <t>TC_Signup03</t>
+  </si>
+  <si>
+    <t>mail: 123@gmail.com 
+Pw: ****</t>
+  </si>
+  <si>
+    <t>Shows error that the password is short
+Password must contain atleast 8 characters</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The password must be set according to the 
+rules set </t>
+  </si>
+  <si>
+    <t>TC_Login02</t>
+  </si>
+  <si>
+    <t>Must login into the account and direct to the homepage</t>
+  </si>
+  <si>
+    <t>TC_Login03</t>
+  </si>
+  <si>
+    <t>mail: 1234@gmail.com Pw: ********</t>
+  </si>
+  <si>
+    <t>Not logged in because the mail is not a valid user</t>
+  </si>
+  <si>
+    <t>1.User must check before entering their username,
+password etc.
+2. The mail id must be a registered mail id in the 
+application</t>
+  </si>
+  <si>
+    <t>TC_Search02</t>
+  </si>
+  <si>
+    <t>The dashboard displays the contents, products, offers 
+available</t>
+  </si>
+  <si>
+    <t>The page displays all kinds and varieties of the hair drier 
+available</t>
+  </si>
+  <si>
+    <t>Eg: leptop</t>
+  </si>
+  <si>
+    <t>The application must autocorrect itself an display the content
+accordingly</t>
+  </si>
+  <si>
+    <t>The application displayed the product "laptop" even though
+there was a spelling mistake in the entered text</t>
+  </si>
+  <si>
+    <t>Shows the option " Search leptop instead of laptop". It may be useful for some other searches</t>
+  </si>
+  <si>
+    <t>TC_Search03</t>
+  </si>
+  <si>
+    <t>Eg: amazon warehouse</t>
+  </si>
+  <si>
+    <t>The page must not display the contents as it is another application's concept</t>
+  </si>
+  <si>
+    <t>Displays the products which has keyword of amazon and warehouse</t>
+  </si>
+  <si>
+    <t>It should not display contents</t>
+  </si>
+  <si>
+    <t>It displays the hair dye which has a price from 249 to 499</t>
+  </si>
+  <si>
+    <t>TC_Filter02</t>
+  </si>
+  <si>
+    <t>Product: Hair dye
+Filter: Ammonia Free</t>
+  </si>
+  <si>
+    <t>It must display the hair dye which has no ammonia</t>
+  </si>
+  <si>
+    <t>It displays the hair dye which has no ammonia</t>
+  </si>
+  <si>
+    <t>TC_Filter03</t>
+  </si>
+  <si>
+    <t>Product: Hair dye
+Filter: Discount 10% and below</t>
+  </si>
+  <si>
+    <t>It must display hair dye which has a discount of 10% ad below</t>
+  </si>
+  <si>
+    <t>It displays hair dye which has a discount of 10% ad below</t>
+  </si>
+  <si>
+    <t>TC_Sort02</t>
+  </si>
+  <si>
+    <t>Product: Hair dye
+Sort by: Newest first</t>
+  </si>
+  <si>
+    <t>It must show the products which are released new to the market</t>
+  </si>
+  <si>
+    <t>It displays products which are released new</t>
+  </si>
+  <si>
+    <t>TC_Sort03</t>
+  </si>
+  <si>
+    <t>Product: Hair dye
+Sort by: Price- Low to High</t>
+  </si>
+  <si>
+    <t>It must show products from lower price to higher price</t>
+  </si>
+  <si>
+    <t>It shows products from lower price to higher price</t>
+  </si>
+  <si>
+    <t>1.It displays producst which are released new.
+2. Some irrelevent products are also displayed</t>
+  </si>
+  <si>
+    <t>TC_AddtoCart02</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Product: Headphones
+Select Add to Cart option</t>
+  </si>
+  <si>
+    <t>Blanket has been added to the cart</t>
+  </si>
+  <si>
+    <t>Heaphone has been added to the cart</t>
+  </si>
+  <si>
+    <t>Product is added to the cart after a few seconds</t>
+  </si>
+  <si>
+    <t>The page is directed to the order details page</t>
+  </si>
+  <si>
+    <t>TC_BuyNow02</t>
+  </si>
+  <si>
+    <t>Product: Laptop
+Select Buy Now</t>
+  </si>
+  <si>
+    <t>The address is saved after clicking save address 
+option</t>
+  </si>
+  <si>
+    <t>The order confirmation page is redirected</t>
+  </si>
+  <si>
+    <t>It is directed to payment option</t>
+  </si>
+  <si>
+    <t>TC_Payment02</t>
+  </si>
+  <si>
+    <t>Payment: UPI</t>
+  </si>
+  <si>
+    <t>The application must redirect to the UPI application where the
+payment is made</t>
+  </si>
+  <si>
+    <t>The application has redirected to the UPI application</t>
+  </si>
+  <si>
+    <t>It is slow when redirected</t>
+  </si>
+  <si>
+    <t>TC_Wishlist01</t>
+  </si>
+  <si>
+    <t>To add a product to the wishlist for later 
+purchase</t>
+  </si>
+  <si>
+    <t>The user must be logged into the application and should 
+select a product</t>
+  </si>
+  <si>
+    <t>1. Used to save for later purchase
+2. Reduces too many items to be saved in Add to Cart option</t>
+  </si>
+  <si>
+    <t>Click the heart shaped button on
+the top right corner when viewing
+each product</t>
+  </si>
+  <si>
+    <t>The product must be added to the wishlist page which is on the 
+Home option</t>
+  </si>
+  <si>
+    <t>The product is added to the wishlist page which is on the 
+Home option</t>
+  </si>
+  <si>
+    <t>My Wishlist</t>
+  </si>
+  <si>
+    <t>My Orders</t>
+  </si>
+  <si>
+    <t>To show the history of our orders</t>
+  </si>
+  <si>
+    <t>The user must be logged into the application
+and should have ordered atleast one product in the past</t>
+  </si>
+  <si>
+    <t>Click "My Orders" in the Home
+option</t>
+  </si>
+  <si>
+    <t>It must show the history of the products purchased earlier and 
+the product which have put to order</t>
+  </si>
+  <si>
+    <t>It shows the history of the products purchased earlier and 
+the product which have put to order</t>
+  </si>
+  <si>
+    <t>Shows option to rate the product</t>
+  </si>
+  <si>
+    <t>TC_MyOrders01</t>
+  </si>
+  <si>
+    <t>Testing Type</t>
+  </si>
+  <si>
+    <t>TC_MyChats01</t>
+  </si>
+  <si>
+    <t>My Chats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user must be logged into the application 
+</t>
+  </si>
+  <si>
+    <t>To check the chat with the executive for any
+clarification</t>
+  </si>
+  <si>
+    <t>Click "My Chats" in the "Home option"</t>
+  </si>
+  <si>
+    <t>It must show the previous chats done with the
+executives</t>
+  </si>
+  <si>
+    <t>It shows the previous chats done with the
+executives</t>
+  </si>
+  <si>
+    <t>It may have an option to create a new chat for any 
+product</t>
+  </si>
+  <si>
+    <t>TC_MyAccount01</t>
+  </si>
+  <si>
+    <t>My Accounts</t>
+  </si>
+  <si>
+    <t>To view the details given by the user</t>
+  </si>
+  <si>
+    <t>The user must have a flipkart acount</t>
+  </si>
+  <si>
+    <t>Click "My Account" on Home option</t>
+  </si>
+  <si>
+    <t>It must show the details that the user has given like User name,
+Contact number etc.</t>
+  </si>
+  <si>
+    <t>It shows the details that the user has given like User name,
+Contact number etc.</t>
+  </si>
+  <si>
+    <t>It can give an option to set a profile picture</t>
+  </si>
+  <si>
+    <t>Signup-2 module test case</t>
+  </si>
+  <si>
+    <t>Signup-3 module test case</t>
+  </si>
+  <si>
+    <t>Login-2 module test case</t>
+  </si>
+  <si>
+    <t>Login-3 module test case</t>
+  </si>
+  <si>
+    <t>Search-2 module test case</t>
+  </si>
+  <si>
+    <t>Search-3 module test case</t>
+  </si>
+  <si>
+    <t>Filter-2 module test case</t>
+  </si>
+  <si>
+    <t>Filter-3 module test case</t>
+  </si>
+  <si>
+    <t>Sort-2 module test case</t>
+  </si>
+  <si>
+    <t>Sort-3 module test case</t>
+  </si>
+  <si>
+    <t>Signup-1 module test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login-1 test case module </t>
+  </si>
+  <si>
+    <t>Search-1 bar test case</t>
+  </si>
+  <si>
+    <t>Filter-1 module test case</t>
+  </si>
+  <si>
+    <t>Sort-1 module test case</t>
+  </si>
+  <si>
+    <t>Add to cart-1 module test case</t>
+  </si>
+  <si>
+    <t>Payment-1 option test case</t>
+  </si>
+  <si>
+    <t>Buy now-1 module test case</t>
+  </si>
+  <si>
+    <t>Add to cart-2 module test case</t>
+  </si>
+  <si>
+    <t>Buy now-2 module test case</t>
+  </si>
+  <si>
+    <t>Payment-2 module test case</t>
+  </si>
+  <si>
+    <t>Wishlist test module</t>
+  </si>
+  <si>
+    <t>My order test module</t>
+  </si>
+  <si>
+    <t>My Chats test module</t>
+  </si>
+  <si>
+    <t>My Account test module</t>
+  </si>
+  <si>
+    <t>Unit, GUI, System</t>
+  </si>
+  <si>
+    <t>Unit, GUI,System</t>
+  </si>
+  <si>
+    <t>Unit, System, Performance</t>
+  </si>
+  <si>
+    <t>TO WRITE AN END TO END TEST CASE FOR BUYING A LAPTOP</t>
+  </si>
+  <si>
+    <t>Eg: HP Laptop</t>
+  </si>
+  <si>
+    <t>The page must display all kinds and varieties of the HP Laptop</t>
+  </si>
+  <si>
+    <t>The page displays all kinds and varieties of the HP Laptop</t>
+  </si>
+  <si>
+    <t>Product: HP Laptop
+Filter:Price- 25000 to 40000</t>
+  </si>
+  <si>
+    <t>It must display HP Laptops with a price ranges from
+Rs 25000 to Rs 40000</t>
+  </si>
+  <si>
+    <t>It display HP Laptops with a price ranges from
+Rs 25000 to Rs 40000</t>
+  </si>
+  <si>
+    <t>Product: HPChromebook
+Select Add to Cart option</t>
+  </si>
+  <si>
+    <t>HP Chromebook has been added to the cart</t>
+  </si>
+  <si>
+    <t>Product: HP Chromebook
+Select Buy Now</t>
+  </si>
+  <si>
+    <t>TC_ESignup01</t>
+  </si>
+  <si>
+    <t>TC_ELogin01</t>
+  </si>
+  <si>
+    <t>TC_EDashboard01</t>
+  </si>
+  <si>
+    <t>TC_ESearch01</t>
+  </si>
+  <si>
+    <t>TC_EFilter01</t>
+  </si>
+  <si>
+    <t>TC_EAddtoCart01</t>
+  </si>
+  <si>
+    <t>TC_EBuyNow01</t>
+  </si>
+  <si>
+    <t>TC_EDeliveryAdd01</t>
+  </si>
+  <si>
+    <t>TC_EPayment01</t>
+  </si>
+  <si>
+    <t>TC_EOrderSummary01</t>
+  </si>
+  <si>
+    <t>Unit, GUI, System, Smoke</t>
+  </si>
+  <si>
+    <t>GUI, Unit</t>
+  </si>
+  <si>
+    <t>Unit, System, Usability</t>
+  </si>
+  <si>
+    <t>Negative, GUI, Unit</t>
+  </si>
+  <si>
+    <t>Unit, Performance, System</t>
+  </si>
+  <si>
+    <t>Unit, GUI</t>
+  </si>
+  <si>
+    <t>GUI, Unit, Performance</t>
+  </si>
+  <si>
+    <t>GUI, Unit, System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -446,8 +910,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +949,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -471,6 +967,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -479,51 +990,59 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -835,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:F19"/>
+  <dimension ref="B6:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,208 +1366,545 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8">
+      <c r="G6" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="2">
         <v>44525</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>44526</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>1.2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="2">
         <v>44526</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>1.3</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="2">
         <v>44526</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>1.4</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="2">
         <v>44526</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="7">
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>1.5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="4">
         <v>44526</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7">
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>1.6</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="4">
         <v>44526</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="7">
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>1.7</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="4">
         <v>44527</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>1.8</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="4">
         <v>44527</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="7">
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>1.9</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="4">
         <v>44527</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="7">
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="4">
         <v>44527</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="11">
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="4">
         <v>44530</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="11">
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="4">
         <v>44530</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>116</v>
-      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44535</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44536</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44536</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44538</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44538</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44538</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1058,475 +1914,1406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="A25" activeCellId="1" sqref="A23:XFD23 A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="55.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="25.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="52" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34" style="10" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="56.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="B25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>114</v>
+      <c r="B31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="mail-123@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId2" display="mail-123@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="55" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="30.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sheran Nancy TC.xlsx
+++ b/Sheran Nancy TC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="273">
   <si>
     <t>Sl.No</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Signup</t>
-  </si>
-  <si>
-    <t>mail: 123@gmail.com Pw: ********</t>
   </si>
   <si>
     <t>The account has been created and directed to the home page</t>
@@ -136,9 +133,6 @@
     <t>The user must enter the product to be bought</t>
   </si>
   <si>
-    <t>Eg: Hair drier</t>
-  </si>
-  <si>
     <t>The page must display all kinds and varieties of the hair drier 
 available</t>
   </si>
@@ -164,10 +158,6 @@
     <t>The user must decide their preference</t>
   </si>
   <si>
-    <t>Product: Hair dye
-Filter: price: 249 to 499</t>
-  </si>
-  <si>
     <t>It must display the hair dye which has a price from 249 to 499</t>
   </si>
   <si>
@@ -185,10 +175,6 @@
 preference</t>
   </si>
   <si>
-    <t>Product: Hair dye
-Sort by: popularity</t>
-  </si>
-  <si>
     <t>It must show the products which are the most sought out</t>
   </si>
   <si>
@@ -205,10 +191,6 @@
     <t>To add a product to the cart</t>
   </si>
   <si>
-    <t>Product: Blanket
-Select Add to Cart option</t>
-  </si>
-  <si>
     <t>The product must be added to the cart after clicking the
 option</t>
   </si>
@@ -234,10 +216,6 @@
   </si>
   <si>
     <t>The user must select a product to buy it</t>
-  </si>
-  <si>
-    <t>Product: Saree
-Select Buy Now</t>
   </si>
   <si>
     <t>The page must be directed to the order details page</t>
@@ -336,9 +314,6 @@
     <t xml:space="preserve">Home </t>
   </si>
   <si>
-    <t xml:space="preserve">To check home option </t>
-  </si>
-  <si>
     <t>The user must check whether there is a home option</t>
   </si>
   <si>
@@ -360,9 +335,6 @@
     <t>Notification</t>
   </si>
   <si>
-    <t>To check the notification section</t>
-  </si>
-  <si>
     <t>The user must check for  notification</t>
   </si>
   <si>
@@ -386,10 +358,6 @@
     <t>TC_Signup02</t>
   </si>
   <si>
-    <t>To create a flipkart account using gmail 
-account</t>
-  </si>
-  <si>
     <t>To create a flipkart account using phone
 number</t>
   </si>
@@ -410,10 +378,6 @@
     <t>TC_Signup03</t>
   </si>
   <si>
-    <t>mail: 123@gmail.com 
-Pw: ****</t>
-  </si>
-  <si>
     <t>Shows error that the password is short
 Password must contain atleast 8 characters</t>
   </si>
@@ -432,9 +396,6 @@
   </si>
   <si>
     <t>TC_Login03</t>
-  </si>
-  <si>
-    <t>mail: 1234@gmail.com Pw: ********</t>
   </si>
   <si>
     <t>Not logged in because the mail is not a valid user</t>
@@ -457,9 +418,6 @@
 available</t>
   </si>
   <si>
-    <t>Eg: leptop</t>
-  </si>
-  <si>
     <t>The application must autocorrect itself an display the content
 accordingly</t>
   </si>
@@ -474,9 +432,6 @@
     <t>TC_Search03</t>
   </si>
   <si>
-    <t>Eg: amazon warehouse</t>
-  </si>
-  <si>
     <t>The page must not display the contents as it is another application's concept</t>
   </si>
   <si>
@@ -492,10 +447,6 @@
     <t>TC_Filter02</t>
   </si>
   <si>
-    <t>Product: Hair dye
-Filter: Ammonia Free</t>
-  </si>
-  <si>
     <t>It must display the hair dye which has no ammonia</t>
   </si>
   <si>
@@ -505,10 +456,6 @@
     <t>TC_Filter03</t>
   </si>
   <si>
-    <t>Product: Hair dye
-Filter: Discount 10% and below</t>
-  </si>
-  <si>
     <t>It must display hair dye which has a discount of 10% ad below</t>
   </si>
   <si>
@@ -518,10 +465,6 @@
     <t>TC_Sort02</t>
   </si>
   <si>
-    <t>Product: Hair dye
-Sort by: Newest first</t>
-  </si>
-  <si>
     <t>It must show the products which are released new to the market</t>
   </si>
   <si>
@@ -529,10 +472,6 @@
   </si>
   <si>
     <t>TC_Sort03</t>
-  </si>
-  <si>
-    <t>Product: Hair dye
-Sort by: Price- Low to High</t>
   </si>
   <si>
     <t>It must show products from lower price to higher price</t>
@@ -551,10 +490,6 @@
     <t>Add to Cart</t>
   </si>
   <si>
-    <t>Product: Headphones
-Select Add to Cart option</t>
-  </si>
-  <si>
     <t>Blanket has been added to the cart</t>
   </si>
   <si>
@@ -568,10 +503,6 @@
   </si>
   <si>
     <t>TC_BuyNow02</t>
-  </si>
-  <si>
-    <t>Product: Laptop
-Select Buy Now</t>
   </si>
   <si>
     <t>The address is saved after clicking save address 
@@ -601,10 +532,6 @@
   </si>
   <si>
     <t>TC_Wishlist01</t>
-  </si>
-  <si>
-    <t>To add a product to the wishlist for later 
-purchase</t>
   </si>
   <si>
     <t>The user must be logged into the application and should 
@@ -634,9 +561,6 @@
     <t>My Orders</t>
   </si>
   <si>
-    <t>To show the history of our orders</t>
-  </si>
-  <si>
     <t>The user must be logged into the application
 and should have ordered atleast one product in the past</t>
   </si>
@@ -672,10 +596,6 @@
 </t>
   </si>
   <si>
-    <t>To check the chat with the executive for any
-clarification</t>
-  </si>
-  <si>
     <t>Click "My Chats" in the "Home option"</t>
   </si>
   <si>
@@ -697,9 +617,6 @@
     <t>My Accounts</t>
   </si>
   <si>
-    <t>To view the details given by the user</t>
-  </si>
-  <si>
     <t>The user must have a flipkart acount</t>
   </si>
   <si>
@@ -888,6 +805,160 @@
   </si>
   <si>
     <t>GUI, Unit, System</t>
+  </si>
+  <si>
+    <t>This module is used to create a flipkart account using gmail 
+account</t>
+  </si>
+  <si>
+    <t>This module is used to  create a flipkart account using phone
+number</t>
+  </si>
+  <si>
+    <t>In this module,
+we can  login into an existing account</t>
+  </si>
+  <si>
+    <t>This module is used to display the contents and products
+ available in the application</t>
+  </si>
+  <si>
+    <t>Search bar
+is used to search for
+ the desired product</t>
+  </si>
+  <si>
+    <t>Filter is a feature where the user can reduce and filter out the products according to their own preference</t>
+  </si>
+  <si>
+    <t>Sorting the product is to arrange the searched product in a specific order</t>
+  </si>
+  <si>
+    <t>The Add to cart feature allows the user to 
+add a product to the cart so that it can bought or used for many purpose in later</t>
+  </si>
+  <si>
+    <t>This feature allows the user to buy the selected product</t>
+  </si>
+  <si>
+    <t>This option makes the user to enter the details of the residence so that the product can be delivered to the entered destination</t>
+  </si>
+  <si>
+    <t>The payment feature makes the user to pay for their ordered product in many ways( COD, through UPI, etc)</t>
+  </si>
+  <si>
+    <t>This feature gives the user the details of the order, the quantity, the date of delivery</t>
+  </si>
+  <si>
+    <t>Home option contains many overall features 
+of the application such as My Order,
+My Wishlist etc.</t>
+  </si>
+  <si>
+    <t>This feature is used to give any notification on any offers, order details etc.</t>
+  </si>
+  <si>
+    <t>This feature is similar to Add to Cart where the product can be saved for later purpose</t>
+  </si>
+  <si>
+    <t>This feature shows the previous order history
+of the user</t>
+  </si>
+  <si>
+    <t>This feature is used to chat with the customer care executives for any clarifications</t>
+  </si>
+  <si>
+    <t>This feature is used to view and edit the details 
+of the user's account</t>
+  </si>
+  <si>
+    <t>1. Enter a valid mail id and enter a password
+mail: 123@gmail.com Pw: ********</t>
+  </si>
+  <si>
+    <t>1. Enter a valid phone number and 
+password
+Ph: 7373212527
+pw:********</t>
+  </si>
+  <si>
+    <t>1. Enter a valid mail id and password
+mail: 123@gmail.com 
+Pw: ****</t>
+  </si>
+  <si>
+    <t>Enter the mail id which is used to signup and its respective password
+mail: 123@gmail.com Pw: ********</t>
+  </si>
+  <si>
+    <t>Enter the phone no. which is used to signup and its respective password
+Ph: 7373212527
+pw:********</t>
+  </si>
+  <si>
+    <t>Enter the mail id which is used to signup and its respective password
+mail: 1234@gmail.com Pw: ********</t>
+  </si>
+  <si>
+    <t>The user must enter the desired product in the search bar
+Eg: leptop</t>
+  </si>
+  <si>
+    <t>The user must enter the desired product in the search bar
+Eg: Hair drier</t>
+  </si>
+  <si>
+    <t>The user must enter the desired product in the search bar
+Eg: amazon warehouse</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: price: 249 to 499</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: Discount 10% and below</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product listProduct: Hair dye
+Filter: Ammonia Free</t>
+  </si>
+  <si>
+    <t>The user should use the sort option near filter option to arrange the product according to the given options
+Product: Hair dye
+Sort by: popularity</t>
+  </si>
+  <si>
+    <t>The user should use the sort option near filter option to arrange the product according to the given options
+Product: Hair dye
+Sort by: Newest first</t>
+  </si>
+  <si>
+    <t>The user should use the sort option near filter option to arrange the product according to the given options
+Product: Hair dye
+Sort by: Price- Low to High</t>
+  </si>
+  <si>
+    <t>After selecting a particular product, select the Add to cart option which is at the bottom
+Product: Blanket
+Select Add to Cart option</t>
+  </si>
+  <si>
+    <t>After selecting a particular product, select the Add to cart option which is at the bottom
+Product: Headphones
+Select Add to Cart option</t>
+  </si>
+  <si>
+    <t>After selecting a particular product, select the Buy now  option which is at the bottom(orange colored option)
+Product: Saree
+Select Buy Now</t>
+  </si>
+  <si>
+    <t>After selecting a particular product, select the Buy now  option which is at the bottom(orange colored option)
+Product: Laptop
+Select Buy Now</t>
   </si>
 </sst>
 </file>
@@ -1029,14 +1100,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1356,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -1383,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1395,13 +1466,13 @@
         <v>44525</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1413,13 +1484,13 @@
         <v>44526</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1431,13 +1502,13 @@
         <v>44526</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1449,13 +1520,13 @@
         <v>44526</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1467,13 +1538,13 @@
         <v>44526</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="G11" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1484,13 +1555,13 @@
         <v>44526</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1501,13 +1572,13 @@
         <v>44526</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1518,13 +1589,13 @@
         <v>44527</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1535,13 +1606,13 @@
         <v>44527</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1552,13 +1623,13 @@
         <v>44527</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G16" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -1569,13 +1640,13 @@
         <v>44527</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -1586,13 +1657,13 @@
         <v>44530</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -1603,13 +1674,13 @@
         <v>44530</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -1620,13 +1691,13 @@
         <v>44535</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -1637,13 +1708,13 @@
         <v>44535</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
@@ -1654,13 +1725,13 @@
         <v>44535</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
@@ -1671,13 +1742,13 @@
         <v>44535</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
@@ -1688,13 +1759,13 @@
         <v>44536</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
@@ -1705,13 +1776,13 @@
         <v>44536</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -1722,13 +1793,13 @@
         <v>44537</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="G26" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
@@ -1739,13 +1810,13 @@
         <v>44537</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
@@ -1756,13 +1827,13 @@
         <v>44537</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
@@ -1773,13 +1844,13 @@
         <v>44537</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -1790,13 +1861,13 @@
         <v>44537</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G30" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
@@ -1807,13 +1878,13 @@
         <v>44537</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="G31" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
@@ -1824,13 +1895,13 @@
         <v>44537</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
@@ -1841,13 +1912,13 @@
         <v>44537</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
@@ -1858,13 +1929,13 @@
         <v>44538</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
@@ -1875,13 +1946,13 @@
         <v>44538</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
@@ -1892,13 +1963,13 @@
         <v>44538</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="G36" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
@@ -1916,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="A25" activeCellId="1" sqref="A23:XFD23 A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1926,8 +1997,8 @@
     <col min="2" max="2" width="25.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="52" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34" style="10" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="44" style="10" customWidth="1"/>
     <col min="7" max="7" width="57.140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="56.28515625" style="10" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="10" customWidth="1"/>
@@ -1967,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1978,153 +2049,153 @@
         <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -2132,31 +2203,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>120</v>
+      <c r="F7" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -2164,445 +2235,445 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
+      <c r="F10" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
+      <c r="F11" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="H12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="H15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="H21" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -2610,191 +2681,191 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2802,127 +2873,127 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2958,12 +3029,12 @@
     <col min="11" max="16384" width="30.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3000,31 +3071,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -3032,57 +3103,57 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -3090,31 +3161,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -3122,31 +3193,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -3154,31 +3225,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -3186,31 +3257,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -3218,95 +3289,95 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Sheran Nancy TC.xlsx
+++ b/Sheran Nancy TC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="436">
   <si>
     <t>Sl.No</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Logged into the account and directed to the homepage</t>
-  </si>
-  <si>
-    <t>TC_Dashboard01</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
   </si>
   <si>
     <t>To display the contents and products
@@ -115,10 +109,6 @@
   </si>
   <si>
     <t>The user must be logged into the application</t>
-  </si>
-  <si>
-    <t>The dashboard must display the contents, products, offers 
-available</t>
   </si>
   <si>
     <t>TC_Search01</t>
@@ -321,9 +311,6 @@
 of the page</t>
   </si>
   <si>
-    <t>It shows lists of option such as my orders, my rewards etc.</t>
-  </si>
-  <si>
     <t>1. Contains many options
 2. Each section are separated by a thin line 
 to differentiate</t>
@@ -342,10 +329,6 @@
 notification</t>
   </si>
   <si>
-    <t>Shows the notification for our account such as order confirm,
-Offers on products etc.</t>
-  </si>
-  <si>
     <t>Notifies offers on our frequent purchase</t>
   </si>
   <si>
@@ -360,9 +343,6 @@
   <si>
     <t>To create a flipkart account using phone
 number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user should have a valid mail id </t>
   </si>
   <si>
     <t>The user should have a valid and useable phone number</t>
@@ -410,10 +390,6 @@
     <t>TC_Search02</t>
   </si>
   <si>
-    <t>The dashboard displays the contents, products, offers 
-available</t>
-  </si>
-  <si>
     <t>The page displays all kinds and varieties of the hair drier 
 available</t>
   </si>
@@ -523,9 +499,6 @@
   <si>
     <t>The application must redirect to the UPI application where the
 payment is made</t>
-  </si>
-  <si>
-    <t>The application has redirected to the UPI application</t>
   </si>
   <si>
     <t>It is slow when redirected</t>
@@ -730,14 +703,6 @@
     <t>The page displays all kinds and varieties of the HP Laptop</t>
   </si>
   <si>
-    <t>Product: HP Laptop
-Filter:Price- 25000 to 40000</t>
-  </si>
-  <si>
-    <t>It must display HP Laptops with a price ranges from
-Rs 25000 to Rs 40000</t>
-  </si>
-  <si>
     <t>It display HP Laptops with a price ranges from
 Rs 25000 to Rs 40000</t>
   </si>
@@ -757,9 +722,6 @@
   </si>
   <si>
     <t>TC_ELogin01</t>
-  </si>
-  <si>
-    <t>TC_EDashboard01</t>
   </si>
   <si>
     <t>TC_ESearch01</t>
@@ -844,18 +806,7 @@
     <t>This option makes the user to enter the details of the residence so that the product can be delivered to the entered destination</t>
   </si>
   <si>
-    <t>The payment feature makes the user to pay for their ordered product in many ways( COD, through UPI, etc)</t>
-  </si>
-  <si>
     <t>This feature gives the user the details of the order, the quantity, the date of delivery</t>
-  </si>
-  <si>
-    <t>Home option contains many overall features 
-of the application such as My Order,
-My Wishlist etc.</t>
-  </si>
-  <si>
-    <t>This feature is used to give any notification on any offers, order details etc.</t>
   </si>
   <si>
     <t>This feature is similar to Add to Cart where the product can be saved for later purpose</t>
@@ -870,25 +821,6 @@
   <si>
     <t>This feature is used to view and edit the details 
 of the user's account</t>
-  </si>
-  <si>
-    <t>1. Enter a valid mail id and enter a password
-mail: 123@gmail.com Pw: ********</t>
-  </si>
-  <si>
-    <t>1. Enter a valid phone number and 
-password
-Ph: 7373212527
-pw:********</t>
-  </si>
-  <si>
-    <t>1. Enter a valid mail id and password
-mail: 123@gmail.com 
-Pw: ****</t>
-  </si>
-  <si>
-    <t>Enter the mail id which is used to signup and its respective password
-mail: 123@gmail.com Pw: ********</t>
   </si>
   <si>
     <t>Enter the phone no. which is used to signup and its respective password
@@ -896,10 +828,6 @@
 pw:********</t>
   </si>
   <si>
-    <t>Enter the mail id which is used to signup and its respective password
-mail: 1234@gmail.com Pw: ********</t>
-  </si>
-  <si>
     <t>The user must enter the desired product in the search bar
 Eg: leptop</t>
   </si>
@@ -959,13 +887,699 @@
     <t>After selecting a particular product, select the Buy now  option which is at the bottom(orange colored option)
 Product: Laptop
 Select Buy Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should have a valid gmail id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should have a valid yahoo mail </t>
+  </si>
+  <si>
+    <t>This module is used to create a flipkart account using yahoo
+account</t>
+  </si>
+  <si>
+    <t>TC_Signup04</t>
+  </si>
+  <si>
+    <t>This module is used to  create a flipkart account using hotmail</t>
+  </si>
+  <si>
+    <t>The user should have a valid hotmail id</t>
+  </si>
+  <si>
+    <t>TC_Signup05</t>
+  </si>
+  <si>
+    <t>This module is used to create a flipkart account using outlook account</t>
+  </si>
+  <si>
+    <t>The user should have a valid outlook id</t>
+  </si>
+  <si>
+    <t>1. Enter a valid outlook mail id
+2. Enter a password which contains a number, alphabet and underscore (special characters and whitespaces are not allowed)
+mail: nancyjeni@outlook.com
+pw: **********</t>
+  </si>
+  <si>
+    <t>Shows the "Incorrect mail" message as there is a mistake ( . Is not
+included)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should have a valid yahoo mail id </t>
+  </si>
+  <si>
+    <t>1. Enter a valid gmail id 
+ 2. Enter a password with atleast 8 characters which contains a number, alphabet and underscore (special characters and whitespaces are not allowed)
+mail: jeni123@gmailcom Pw: ********</t>
+  </si>
+  <si>
+    <t>1. Enter a valid hotmail id
+2. Enter a password with atleast 8 characters which contains a number, alphabet and underscore (special characters and whitespaces are not allowed)
+mail: nancy12@hotmail.com
+pw: **********</t>
+  </si>
+  <si>
+    <t>1. Enter a valid gmail id 
+ 2. Enter a password with atleast 8 characters  which contains a number, alphabet and underscore (special characters and whitespaces are not allowed)
+mail: 123@gmail.com Pw: ********</t>
+  </si>
+  <si>
+    <t>1. Enter a valid yahoo mail id 
+2. Enter a password with atleast 8 characters  which contains a number, alphabet and underscore (special characters and whitespaces are not allowed)
+mail: nancy12@yahoo.com
+pw: **********</t>
+  </si>
+  <si>
+    <t>1. Enter a valid phone number
+2. Enter a password with atleast 8 characters  which contains a number, alphabet and underscore (special characters and whitespaces are not allowed)
+Ph: 7373212527
+pw:********</t>
+  </si>
+  <si>
+    <t>1. Enter a valid mail id and password
+ 2. Enter a password with atleast 8 characters which contains a number, alphabet and underscore (special characters and whitespaces are not allowed)
+mail: jancy123@yahoo.com 
+Pw: nanc</t>
+  </si>
+  <si>
+    <t>TC_Signup06</t>
+  </si>
+  <si>
+    <t>TC_Signup07</t>
+  </si>
+  <si>
+    <t>TC_Signup08</t>
+  </si>
+  <si>
+    <t>This module is used to create a flipkart account using yahoo 
+account</t>
+  </si>
+  <si>
+    <t>This module is used to create a flipkart account using hotmail 
+account</t>
+  </si>
+  <si>
+    <t>The user should have a valid hotmail account</t>
+  </si>
+  <si>
+    <t>1. Enter a valid hotmail id
+2. Enter a password with atleast 8 characters which contains a number, alphabet and underscore (special characters and whitespaces are not allowed)
+mail: nancy12@hotmail.com
+pw:   @Nanc6</t>
+  </si>
+  <si>
+    <t>Shows error because the password contains empty space and a 
+special character</t>
+  </si>
+  <si>
+    <t>Enter the mail id which is used to signup and its respective password
+mail: 123@gmail.com 
+Pw: ********</t>
+  </si>
+  <si>
+    <t>Enter the mail id which is used to signup and its respective password
+mail: 1234@gmail.com 
+Pw: ********</t>
+  </si>
+  <si>
+    <t>Enter the mail id which is used to signup and its respective password
+mail: yamuna1234@hotmail.com 
+Pw: ********</t>
+  </si>
+  <si>
+    <t>TC_Login04</t>
+  </si>
+  <si>
+    <t>Enter the mail id which is used to signup and its respective password
+mail: yamuna1234@outlook.com 
+Pw: ********</t>
+  </si>
+  <si>
+    <t>TC_Login05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>TC_Login06</t>
+  </si>
+  <si>
+    <t>Enter the mail id which is used to signup and its respective password
+mail:joseph234@gmail.com 
+Pw: _wolfjn000</t>
+  </si>
+  <si>
+    <t>Not Logged in because the password is incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User can use the "forget password" to recover the 
+password by sending otp to respected mail or phone
+number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery </t>
+  </si>
+  <si>
+    <t>Here, we are recovering a flipkart account</t>
+  </si>
+  <si>
+    <t>1. Enter the mail id which is used to signup and its respective password
+mail:joseph234@gmail.com 
+Pw: _wolfjn000
+2. If the password is incorrect select the "Forget?" on the password textbox
+3. An otp will be sent to the mail 
+4. Enter the otp and reset password</t>
+  </si>
+  <si>
+    <t>After resetting the password, the user must relogin using
+new password</t>
+  </si>
+  <si>
+    <t>Logged into the account after changing and entering the new password</t>
+  </si>
+  <si>
+    <t>TC_Recover01</t>
+  </si>
+  <si>
+    <t>1. Enter the phone no. which is used to signup and its respective password
+ph:7373212527
+Pw: _wolfjn000
+2. If the password is incorrect select the "Forget?" on the password textbox
+3. An otp will be sent to our phone number
+4. Enter the otp and reset password</t>
+  </si>
+  <si>
+    <t>TC_Homepage01</t>
+  </si>
+  <si>
+    <t>TC_Recover02</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>The homepage must display the contents, products, offers 
+available</t>
+  </si>
+  <si>
+    <t>The Homepage displays the contents, products, offers 
+available</t>
+  </si>
+  <si>
+    <t>1.The Homepage contains overall products available
+2. It can be neatly ordered so that there wont be any                                                                                                                                                                                                                                                               confusion</t>
+  </si>
+  <si>
+    <t>Shows connection error</t>
+  </si>
+  <si>
+    <t>This message displays when,
+1.There is no internet connection
+2. Inadequate network</t>
+  </si>
+  <si>
+    <t>TC_Homepage02</t>
+  </si>
+  <si>
+    <t>The user must enter the desired product in the search bar
+Eg: Hair dryer</t>
+  </si>
+  <si>
+    <t>It can show as a suggestion for the combo offer instead of showing as a product while searchind</t>
+  </si>
+  <si>
+    <t>1. The page displays all kinds and range of hair dryers
+2. This module also shows combos of hair dryer with combs, hair dryer with straightner and 2 hair dryers aso</t>
+  </si>
+  <si>
+    <t>TC_Search04</t>
+  </si>
+  <si>
+    <t>The user must enter the desired product in the search bar
+Eg: Kurthi combo</t>
+  </si>
+  <si>
+    <t>This module should show combo offers on kurthi set such as 2 kurthi, 3 kurtis</t>
+  </si>
+  <si>
+    <t>1. The module shows single kurthi alone.
+2. It also shows combo offers such as 2 kurtis, 3 kurthis, 4 kurthis
+3. It shows combo with kurthi top and bottomwear</t>
+  </si>
+  <si>
+    <t>Shows different kinds and varieties of kurthis and good range</t>
+  </si>
+  <si>
+    <t>TC_Search05</t>
+  </si>
+  <si>
+    <t>The user must enter the desired product in the search bar
+Eg: skin care products</t>
+  </si>
+  <si>
+    <t>This module should show all the skin care products</t>
+  </si>
+  <si>
+    <t>1. It shows all skin care products such as face wash, face mask, serum, eye cream, face massager, face oil.
+2. It particularly does not show product until we enter the exact keyword</t>
+  </si>
+  <si>
+    <t>1. As it is a common keyword it shows various products
+2. If the user want to search specific product then they must search using the specific keyword</t>
+  </si>
+  <si>
+    <t>TC_Search06</t>
+  </si>
+  <si>
+    <t>The user must enter the desired product in the search bar
+Eg: Mobile Accessories</t>
+  </si>
+  <si>
+    <t>This module should show all mobile accessories</t>
+  </si>
+  <si>
+    <t>1. When typing in search bar, it shows categories such as "Mobile accessories in Mobile holders".
+2. It does not specifically have any combo offers unless we mention specific product EG: mobile cover combo</t>
+  </si>
+  <si>
+    <t>TC_Search07</t>
+  </si>
+  <si>
+    <t>The user must enter the desired product in the search bar
+Eg: stationary</t>
+  </si>
+  <si>
+    <t>This module must show all the stationary items</t>
+  </si>
+  <si>
+    <t>1. It shows all stationary items
+2. It also shows many combo offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This search feature makes the user can choose their product with visible check</t>
+  </si>
+  <si>
+    <t>1. If the user knows the particular accessory name, then it would be easy for them to search</t>
+  </si>
+  <si>
+    <t>TC_Search08</t>
+  </si>
+  <si>
+    <t>TC_Filter04</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: Brand</t>
+  </si>
+  <si>
+    <t>It must display the brands which offers hair dye</t>
+  </si>
+  <si>
+    <t>1. It shows lots of hair dye brands
+2. Check box is given for checking more than one brand</t>
+  </si>
+  <si>
+    <t>1. It shows more than 30 brands so that the user can select from any brand
+2. Check box feature makes easy for the user, as they can select from more than one product</t>
+  </si>
+  <si>
+    <t>TC_Filter05</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: Customer Ratings</t>
+  </si>
+  <si>
+    <t>It must display the product's rating given by the customer according to the 
+customer</t>
+  </si>
+  <si>
+    <t>It shows product's rating according to stars given by customers
+( 4 &amp; above, 3 &amp; above,2 &amp; above,1 &amp; above)</t>
+  </si>
+  <si>
+    <t>The customer rating feature can give the user a clear 
+qaulity of the product</t>
+  </si>
+  <si>
+    <t>TC_Sort04</t>
+  </si>
+  <si>
+    <t>The user should use the sort option near filter option to arrange the product according to the given options
+Product: Hair dye
+Sort by: Price- High to Low</t>
+  </si>
+  <si>
+    <t>It must show products from High to low price</t>
+  </si>
+  <si>
+    <t>It shows products from High to low price</t>
+  </si>
+  <si>
+    <t>TC_Filter06</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: Offers</t>
+  </si>
+  <si>
+    <t>It must show the offers provided by the application</t>
+  </si>
+  <si>
+    <t>It shows offers such as 
+1. Buy more, save more
+2. No cost EMI
+3. Special price</t>
+  </si>
+  <si>
+    <t>It gives offers to the customers so that they can buy products at their decided price</t>
+  </si>
+  <si>
+    <t>TC_Filter07</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: Color</t>
+  </si>
+  <si>
+    <t>It must show the colors of the dye</t>
+  </si>
+  <si>
+    <t>TC_Filter08</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: Availability</t>
+  </si>
+  <si>
+    <t>It must display the available products or include products which are out of stock</t>
+  </si>
+  <si>
+    <t>It shows many colors of hair dye</t>
+  </si>
+  <si>
+    <t>Instead of name, it can show the hair dye color palatte which will be easier for the users to select their favourite color</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This module gives only one option(Include out of stock products)</t>
+  </si>
+  <si>
+    <t>By including out of stock products, we can order our favourite by using notify me option</t>
+  </si>
+  <si>
+    <t>TC_Filter09</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: GST invoice available</t>
+  </si>
+  <si>
+    <t>It must display the products which has GST invoice</t>
+  </si>
+  <si>
+    <t>This module only displays GST invoice products</t>
+  </si>
+  <si>
+    <t>TC_Filter10</t>
+  </si>
+  <si>
+    <t>The user must click the option filter which is present on the top of the searched product list
+Product: Hair dye
+Filter: Deliver at</t>
+  </si>
+  <si>
+    <t>This feature must display our saved address or a text box to enter 
+our delivery address</t>
+  </si>
+  <si>
+    <t>This feature displays our saved address or a text box to enter 
+our delivery address, so that the application just displays products which are delivereable at that location</t>
+  </si>
+  <si>
+    <t>It is easy to select our delivery location beforehand</t>
+  </si>
+  <si>
+    <t>This feature is used to give any notification on any offers, order details.</t>
+  </si>
+  <si>
+    <t>Home option contains many overall features 
+of the application such as My Order,
+My Wishlist.</t>
+  </si>
+  <si>
+    <t>The payment feature makes the user to pay for their ordered product in many ways</t>
+  </si>
+  <si>
+    <t>1.The application has redirected to the UPI application
+2. There are many UPI supported apps such as gpay, phonepe, paytm
+3. In every UPI apps, it asks for the confirmation of amount to the user.
+4. Then it asks for the PIN which we use for the UPI
+5. After entering the PIN, It confirms our payment</t>
+  </si>
+  <si>
+    <t>TC_Payment03</t>
+  </si>
+  <si>
+    <t>Payment: Credit card/ Debit Card/ ATM Card</t>
+  </si>
+  <si>
+    <t>The application must have a module where the user can enter the details</t>
+  </si>
+  <si>
+    <t>1. There are some text box and list boxes with specific format to enter the card details in this module
+2. When clicking the Credit/Debit/ATM card Radio button there appears a text box where user should enter their card number, date of expiry and CVV number.
+3. After enteing the details click OK and complete the payment</t>
+  </si>
+  <si>
+    <t>TC_Payment04</t>
+  </si>
+  <si>
+    <t>Payment: Net Banking</t>
+  </si>
+  <si>
+    <t>The application must redirect to the Net Banking page</t>
+  </si>
+  <si>
+    <t>1. The module asks to select bank for the transaction
+2. Once the bank is selected, then it redirects to their net banking page
+3. After logging into our net banking account, it confirms the details of payment and click okay 
+4. Once the payment is complete, then it redirects to order summary page</t>
+  </si>
+  <si>
+    <t>TC_Payment05</t>
+  </si>
+  <si>
+    <t>1.The application has redirected to the UPI application
+2. There are many UPI supported apps such as gpay, phonepe, paytm
+3. In every UPI apps, it asks for the confirmation of amount to the user.
+4. Then it asks for the PIN which we use for the UPI
+5. After entering the PIN, it loads
+6. A message appears that the bank server is busy and please try later</t>
+  </si>
+  <si>
+    <t>1. This occurs when the bank server is busy or under maintanence
+2. At this time, it is better for the user to wait for sometime and try again later</t>
+  </si>
+  <si>
+    <t>TC_Payment06</t>
+  </si>
+  <si>
+    <t>1.The application has redirected to the UPI application
+2. There are many UPI supported apps such as gpay, phonepe, paytm
+3. In every UPI apps, it asks for the confirmation of amount to the user.
+4. Then it asks for the PIN which we use for the UPI
+5. After entering the PIN, it loads
+6. A message appears that payment is failed but the amount has been debited</t>
+  </si>
+  <si>
+    <t>1. This occurs when there is an error in the transaction
+2. The amount debited normally would be credited within 1hr to 2 days
+2. If not, then the user must consult with their respective banks</t>
+  </si>
+  <si>
+    <t>It shows lists of option such as my orders, my rewards.</t>
+  </si>
+  <si>
+    <t>Shows the notification for our account such as order confirm,
+Offers on products</t>
+  </si>
+  <si>
+    <t>TC_Lang01</t>
+  </si>
+  <si>
+    <t>Choose Language</t>
+  </si>
+  <si>
+    <t>This feature is to choose language for the 
+user so that they can choose their comfortable
+language</t>
+  </si>
+  <si>
+    <t>Click "Choose Language" on Home option</t>
+  </si>
+  <si>
+    <t>It must show language with radio button to choose</t>
+  </si>
+  <si>
+    <t>1. It shows regional language of India(Tamil, Hindi, Telugu, Malayalam)
+and English
+2. It consists of Radio button to select</t>
+  </si>
+  <si>
+    <t>TC_NotifyMe01</t>
+  </si>
+  <si>
+    <t>Notify Me</t>
+  </si>
+  <si>
+    <t>This feature is used to notify the out of stock product
+to the user after it is stocked</t>
+  </si>
+  <si>
+    <t>The user must be ordering a product</t>
+  </si>
+  <si>
+    <t>The user should select a particular product</t>
+  </si>
+  <si>
+    <t>It must show notify me option when a product is out of stock</t>
+  </si>
+  <si>
+    <t>1.It shows Notify Me option when a product is out of stock
+2. The notification appears when the product is stocked</t>
+  </si>
+  <si>
+    <t>TC_ESignup02</t>
+  </si>
+  <si>
+    <t>Ph: 7373212527
+pw:****</t>
+  </si>
+  <si>
+    <t>The password is too short to create a flipkart account</t>
+  </si>
+  <si>
+    <t>TC_EHomepage01</t>
+  </si>
+  <si>
+    <t>The Homepage must display the contents, products, offers 
+available</t>
+  </si>
+  <si>
+    <t>TC_EFilter02</t>
+  </si>
+  <si>
+    <t>Product: HP Laptop
+Filter:Price- 20000 to 30000</t>
+  </si>
+  <si>
+    <t>It must display HP Laptops with a price ranges from
+Rs 20000 to Rs 30000</t>
+  </si>
+  <si>
+    <t>Product: HP Laptop
+Filter:Processor</t>
+  </si>
+  <si>
+    <t>It must display the processors used in that laptops</t>
+  </si>
+  <si>
+    <t>1. It has two types such as popular filters and others
+2. Many users recommended and favourite processors ar under popular filter</t>
+  </si>
+  <si>
+    <t>Product: HP Laptop
+Filter: Screen Size</t>
+  </si>
+  <si>
+    <t>It must display the available screen sizes in the laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It has 4 types:
+1. 13 inch-13.9 inch
+2. 14 inch - 14.9 inch
+3. 15 inch - 15.9 inch
+4. below 12 inch</t>
+  </si>
+  <si>
+    <t>1. All the sizes are mentioned only in inches 
+2. It would be comfortable if there is a size chart</t>
+  </si>
+  <si>
+    <t>TC_EFilter03</t>
+  </si>
+  <si>
+    <t>TC_EFilter04</t>
+  </si>
+  <si>
+    <t>Product: HP Laptop
+Filter: Operating system</t>
+  </si>
+  <si>
+    <t>It must display the available OS for the laptop</t>
+  </si>
+  <si>
+    <t>It provides Windows 10, DOS, Chrome, Windows 11</t>
+  </si>
+  <si>
+    <t>Customizable OS would be perfect</t>
+  </si>
+  <si>
+    <t>TC_EFilter05</t>
+  </si>
+  <si>
+    <t>Product: HP Laptop
+Filter: Dedicated graphics memory</t>
+  </si>
+  <si>
+    <t>It must display the available Graphics memory</t>
+  </si>
+  <si>
+    <t>Provides graphic memory in the ranges as follows: 4GB, 6GB,2GB,8GB and Integrated Graphics card</t>
+  </si>
+  <si>
+    <t>TC_EFilter06</t>
+  </si>
+  <si>
+    <t>Product: HP Laptop
+Filter: Harddisk Capacity</t>
+  </si>
+  <si>
+    <t>It must display the available Hard disk capacity</t>
+  </si>
+  <si>
+    <t>Provides only 1TB laptops</t>
+  </si>
+  <si>
+    <t>Better if provide wide range of Hard disk capacities</t>
+  </si>
+  <si>
+    <t>TC_EFilter07</t>
+  </si>
+  <si>
+    <t>Product: HP Laptop
+Filter: RAM</t>
+  </si>
+  <si>
+    <t>It must display the available RAM Capacitites</t>
+  </si>
+  <si>
+    <t>Provides 8GB, 4GB and 16GB RAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1617,12 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
@@ -1072,7 +1692,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1102,6 +1722,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1454,7 +2077,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1466,13 +2089,13 @@
         <v>44525</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1484,13 +2107,13 @@
         <v>44526</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1502,13 +2125,13 @@
         <v>44526</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1520,13 +2143,13 @@
         <v>44526</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1538,13 +2161,13 @@
         <v>44526</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1555,13 +2178,13 @@
         <v>44526</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1572,13 +2195,13 @@
         <v>44526</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1589,13 +2212,13 @@
         <v>44527</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1606,13 +2229,13 @@
         <v>44527</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1623,13 +2246,13 @@
         <v>44527</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -1640,13 +2263,13 @@
         <v>44527</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -1657,13 +2280,13 @@
         <v>44530</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -1674,13 +2297,13 @@
         <v>44530</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -1691,13 +2314,13 @@
         <v>44535</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -1708,13 +2331,13 @@
         <v>44535</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
@@ -1725,13 +2348,13 @@
         <v>44535</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
@@ -1742,13 +2365,13 @@
         <v>44535</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
@@ -1759,13 +2382,13 @@
         <v>44536</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
@@ -1776,13 +2399,13 @@
         <v>44536</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -1793,13 +2416,13 @@
         <v>44537</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
@@ -1810,13 +2433,13 @@
         <v>44537</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
@@ -1827,13 +2450,13 @@
         <v>44537</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
@@ -1844,13 +2467,13 @@
         <v>44537</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -1861,13 +2484,13 @@
         <v>44537</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G30" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
@@ -1878,13 +2501,13 @@
         <v>44537</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
@@ -1895,13 +2518,13 @@
         <v>44537</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
@@ -1912,13 +2535,13 @@
         <v>44537</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
@@ -1929,13 +2552,13 @@
         <v>44538</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G34" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
@@ -1946,13 +2569,13 @@
         <v>44538</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
@@ -1963,13 +2586,13 @@
         <v>44538</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
@@ -1985,23 +2608,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="25.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="44" style="10" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="56.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" style="10" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
@@ -2038,7 +2661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2049,16 +2672,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="9" t="s">
         <v>254</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>15</v>
@@ -2070,27 +2693,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
@@ -2098,710 +2721,690 @@
       <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>256</v>
+        <v>94</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>257</v>
+        <v>262</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>267</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
-        <v>27</v>
+        <v>265</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>32</v>
+        <v>277</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>116</v>
+        <v>280</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>120</v>
+      <c r="G11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>227</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>43</v>
+        <v>292</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>293</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>43</v>
+        <v>292</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>297</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>298</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>269</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>138</v>
+        <v>301</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>270</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>139</v>
+        <v>301</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>62</v>
+        <v>229</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>76</v>
+        <v>229</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>229</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>70</v>
+        <v>229</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>72</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -2809,215 +3412,1162 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>87</v>
+        <v>321</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>330</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>91</v>
+        <v>229</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>152</v>
+        <v>230</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>156</v>
+        <v>244</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>159</v>
+        <v>230</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>162</v>
+        <v>246</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J29" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>171</v>
+        <v>230</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>179</v>
+      <c r="G45" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="7" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="mail-123@gmail.com"/>
-    <hyperlink ref="F4" r:id="rId2" display="mail-123@gmail.com"/>
+    <hyperlink ref="F8" r:id="rId1" display="mail-123@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.140625" style="7" bestFit="1" customWidth="1"/>
@@ -3029,9 +4579,9 @@
     <col min="11" max="16384" width="30.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>208</v>
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3071,22 +4621,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
@@ -3103,281 +4653,517 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>219</v>
+        <v>402</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
       <c r="B5" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G6" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>224</v>
+        <v>407</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>217</v>
+        <v>410</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>57</v>
+        <v>411</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>141</v>
+        <v>412</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>63</v>
+        <v>413</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>143</v>
+        <v>415</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>144</v>
+        <v>421</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>227</v>
+        <v>423</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="H19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>72</v>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
